--- a/medicine/Enfance/Léa_Védrine/Léa_Védrine.xlsx
+++ b/medicine/Enfance/Léa_Védrine/Léa_Védrine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9a_V%C3%A9drine</t>
+          <t>Léa_Védrine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léa Védrine, de son nom de plume Georges Nigremont, est une autrice d'œuvres pour la jeunesse, née le 16 février 1885 à La Villeneuve (Creuse) et décédée le 21 août 1971 dans la même commune.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9a_V%C3%A9drine</t>
+          <t>Léa_Védrine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle suit les cours de l'école normale de Guéret de 1900 à 1903 où elle obtient son brevet élémentaire puis elle devient institutrice. Elle se marie à 25 ans en 1910 à Fernand Pelletier. Après la guerre, elle devient inspectrice des écoles maternelles à Nancy (1926), puis à Paris (1935-1945).
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9a_V%C3%A9drine</t>
+          <t>Léa_Védrine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a emprunté son pseudonyme au haut lieu de Saint-Georges-Nigremont (canton de Crocq, près d'Aubusson), d'où son père, instituteur, était originaire, et où son grand-père, paysan et maçon creusois, avait construit une maison. C'est aussi un clin d'œil à George Sand autre écrivaine qui a aussi décrit le monde rural de son époque[1] (La Petite Fadette, La Mare au Diable, François le Champi, Les Maîtres sonneurs).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a emprunté son pseudonyme au haut lieu de Saint-Georges-Nigremont (canton de Crocq, près d'Aubusson), d'où son père, instituteur, était originaire, et où son grand-père, paysan et maçon creusois, avait construit une maison. C'est aussi un clin d'œil à George Sand autre écrivaine qui a aussi décrit le monde rural de son époque (La Petite Fadette, La Mare au Diable, François le Champi, Les Maîtres sonneurs).
 Restée toute sa vie très attachée à sa région de naissance, elle est surtout connue pour son roman Jeantou, le maçon creusois (1936), qui a obtenu le Prix Jeunesse en 1937. Avec cette œuvre, Georges Nigremont fait revivre la rude existence des paysans creusois au début du XIXe siècle.
-Elle a aussi publié des Contes et légendes de l'Auvergne, de la Marche et du Limousin (1940) et divers romans pour la jeunesse, dont l'action est située dans le Limousin[2], ainsi que des études régionalistes ou encore sur Tchekhov.
+Elle a aussi publié des Contes et légendes de l'Auvergne, de la Marche et du Limousin (1940) et divers romans pour la jeunesse, dont l'action est située dans le Limousin, ainsi que des études régionalistes ou encore sur Tchekhov.
 En 1951, elle obtient le Prix Gabriel Nigond pour son roman La Bru.
 </t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9a_V%C3%A9drine</t>
+          <t>Léa_Védrine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Mémoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve son nom dans divers manuels scolaires, comme Toute une année de lecture au Cours élémentaire. Un collège à Crocq porte son nom[3], ainsi qu'une rue à Aubusson.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve son nom dans divers manuels scolaires, comme Toute une année de lecture au Cours élémentaire. Un collège à Crocq porte son nom, ainsi qu'une rue à Aubusson.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%C3%A9a_V%C3%A9drine</t>
+          <t>Léa_Védrine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jeantou, le maçon creusois, Prix Jeunesse, 1937. rééd. Éd. de Borée, 2007  (ISBN 978-2844945488)
 Piste eskimo, Delagrave, 1966
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%C3%A9a_V%C3%A9drine</t>
+          <t>Léa_Védrine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,8 +673,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Article connexe
-Maçons de la Creuse</t>
+          <t>Article connexe</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Maçons de la Creuse</t>
         </is>
       </c>
     </row>
